--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,10 @@
   </si>
   <si>
     <t>了解hbuilder的基本操作，复习了以前学过的前端知识，看了几个小demo的源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经把学习到的知识实践了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +436,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -458,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,7 +825,7 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="C98" sqref="C98:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -830,18 +837,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -880,12 +887,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -894,12 +901,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -940,12 +947,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -960,12 +967,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -994,12 +1001,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1008,12 +1015,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1078,12 +1085,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1092,12 +1099,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1117,10 +1124,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1129,41 +1136,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1194,20 +1201,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1236,20 +1243,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1326,20 +1333,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1416,20 +1423,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1455,7 +1462,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1469,7 +1476,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="13"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1484,12 +1491,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1498,12 +1505,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1558,20 +1565,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1594,7 +1601,7 @@
       <c r="B88" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1606,7 +1613,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="14"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1616,7 +1623,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1626,7 +1633,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1636,24 +1643,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="14"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -1673,55 +1680,56 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="1"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="10"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="1"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="10"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="1"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="10"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="1"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="10"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A96:D96"/>
+  <mergeCells count="33">
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="B98:B102"/>
     <mergeCell ref="C88:C92"/>
@@ -1746,6 +1754,7 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C98:C102"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A86:D86"/>
@@ -1753,6 +1762,7 @@
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A96:D96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="14475" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,54 @@
   </si>
   <si>
     <t>已经把学习到的知识实践了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.10.12-2017-10-14 七 周四 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责设计数据库接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛洁鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.10.16 七 周一 下午 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在他的空余时间做这项任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于时间问题只完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄宝怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责登录界面的代码设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责首页的前端页面代码设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,25 +512,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -492,6 +540,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -508,7 +624,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -822,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98:C102"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -837,18 +953,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -887,12 +1003,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -901,12 +1017,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -947,12 +1063,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -967,19 +1083,19 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -1001,12 +1117,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1015,12 +1131,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1085,12 +1201,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1099,12 +1215,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1124,10 +1240,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1136,41 +1252,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1201,20 +1317,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1243,20 +1359,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1333,20 +1449,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1423,20 +1539,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1462,7 +1578,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1476,7 +1592,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="14"/>
+      <c r="D72" s="16"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1491,12 +1607,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1505,12 +1621,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1565,20 +1681,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1601,7 +1717,7 @@
       <c r="B88" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1613,7 +1729,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="15"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1623,7 +1739,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1633,7 +1749,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="15"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1643,24 +1759,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="15"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -1680,10 +1796,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -1692,44 +1808,161 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="10"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+    </row>
+    <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="B98:B102"/>
     <mergeCell ref="C88:C92"/>
@@ -1746,23 +1979,6 @@
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A96:D96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="108">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,7 +396,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
+    <t>完善中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习hbilder开发软件，复习HTML5，CSS3，JavaScript。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.23 九 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责数据库和后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责数据库和后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责以下前端页面：主页，作品，作品详细 ，想买， 设计师详细， 设计师专辑详细 ，登录界面， 普通用户注册页面， 设计师注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责以下前端页面：我的， 我的-设计师， 我的-普通用户， 我的关注， 我的作品 ， 发布作品， 我的专辑， 新增专辑， 我的收藏， 查看购买意向， 设置， 修改密码， 普通用户信息修改， 设计师信息修改 ，我的购买意向， 资讯详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责以下前端页面：品牌服装， 品牌服装详细， 品牌服装供应商， 面料详细， 面料供应商， 关于， 忘记密码 ，重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是从今周开始进入到开发阶段小组成员的基本总体分工明细。但开发过程中小组成员可以按照自己的习惯节奏去进行开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚开始进入到开发阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 四 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成首页界面的开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +536,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -512,15 +564,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -530,7 +573,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -938,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -953,18 +1008,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1003,12 +1058,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1017,12 +1072,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1063,12 +1118,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1083,12 +1138,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1117,12 +1172,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1131,12 +1186,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1201,12 +1256,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1215,12 +1270,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1240,10 +1295,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1252,41 +1307,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1317,20 +1372,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1359,20 +1414,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1449,20 +1504,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1539,20 +1594,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1578,7 +1633,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1592,7 +1647,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="16"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1607,12 +1662,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1621,12 +1676,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1681,20 +1736,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1715,9 +1770,9 @@
         <v>5</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1729,7 +1784,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="11"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1739,7 +1794,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="11"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1749,7 +1804,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="11"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1759,24 +1814,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="11"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -1796,10 +1851,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -1808,49 +1863,49 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="15"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="15"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -1874,7 +1929,7 @@
         <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -1893,20 +1948,20 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -1929,36 +1984,152 @@
       <c r="B115" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" ht="90" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A127" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+    </row>
+    <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+    </row>
+    <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A133" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
+  <mergeCells count="43">
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="D123:D126"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="B30:B33"/>
@@ -1966,6 +2137,10 @@
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="B98:B102"/>
     <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:D6"/>
@@ -1974,11 +2149,23 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="C98:C102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="115">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,15 +440,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.24 四 周二 上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成70%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>继续完成首页界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成其中一个小模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 九 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 九 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成首页界面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写后台实体类和登录模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写前端品牌服装界面模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写整体底部导航代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写后台实体类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +564,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -564,28 +592,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -993,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1008,18 +1039,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1058,12 +1089,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1072,12 +1103,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1118,12 +1149,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1138,12 +1169,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1172,12 +1203,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1186,12 +1217,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1270,12 +1301,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1295,10 +1326,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1307,24 +1338,24 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1336,12 +1367,12 @@
       <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1372,20 +1403,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1414,20 +1445,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1512,12 +1543,12 @@
       <c r="D56" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1602,12 +1633,12 @@
       <c r="D66" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1633,7 +1664,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="17" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1647,7 +1678,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="14"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1662,12 +1693,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1676,12 +1707,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1736,20 +1767,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1772,7 +1803,7 @@
       <c r="B88" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1784,7 +1815,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="16"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1794,7 +1825,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="16"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1804,7 +1835,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="16"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1814,7 +1845,7 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="16"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1826,12 +1857,12 @@
       <c r="D93" s="13"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -1851,10 +1882,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -1863,32 +1894,32 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="12"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="12"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="12"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="12"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1900,12 +1931,12 @@
       <c r="D103" s="13"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -1929,7 +1960,7 @@
         <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -1948,20 +1979,20 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -1990,20 +2021,20 @@
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2026,7 +2057,7 @@
       <c r="B122" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D122" s="1"/>
@@ -2038,8 +2069,8 @@
       <c r="B123" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="17" t="s">
+      <c r="C123" s="14"/>
+      <c r="D123" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2050,8 +2081,8 @@
       <c r="B124" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="17"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2060,8 +2091,8 @@
       <c r="B125" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="17"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2070,8 +2101,8 @@
       <c r="B126" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="17"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
@@ -2082,12 +2113,12 @@
       <c r="D127" s="13"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+      <c r="A130" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -2108,21 +2139,153 @@
         <v>6</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C132" s="3"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+    </row>
+    <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A143" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="10"/>
+    </row>
+    <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B144" s="14"/>
+      <c r="C144" s="18"/>
+    </row>
+    <row r="145" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B145" s="14"/>
+      <c r="C145" s="18"/>
+    </row>
+    <row r="146" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B146" s="14"/>
+      <c r="C146" s="18"/>
+    </row>
+    <row r="147" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B147" s="14"/>
+      <c r="C147" s="18"/>
+    </row>
+    <row r="148" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="46">
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A26:D26"/>
@@ -2139,33 +2302,6 @@
     <mergeCell ref="C88:C92"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="C98:C102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">日期：2017.10.12-2017-10-14 七 周四 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责设计数据库接口文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +473,82 @@
   </si>
   <si>
     <t>写后台实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一小类实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一小模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成首页界面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.10.12-2017-10-14 七  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写后台实体类和登录模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 九 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写后台实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成又一小类实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成又一小类实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一部分效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写整体底部导航代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写前端品牌服装界面模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成另一一小模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责注册界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.30 十 周一  下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责我的界面代码块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +636,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,7 +667,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -604,19 +685,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -626,74 +701,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -710,7 +717,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1024,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1039,18 +1046,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1089,12 +1096,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1103,12 +1110,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1149,12 +1156,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1169,12 +1176,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1203,12 +1210,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1217,12 +1224,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1287,12 +1294,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1301,12 +1308,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1326,10 +1333,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1338,41 +1345,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1403,20 +1410,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1445,20 +1452,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1535,20 +1542,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1625,20 +1632,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1693,12 +1700,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1707,12 +1714,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1767,20 +1774,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1801,9 +1808,9 @@
         <v>5</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1815,7 +1822,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="14"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1825,7 +1832,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1835,7 +1842,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1845,24 +1852,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="14"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -1882,10 +1889,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -1894,56 +1901,56 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="18"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="18"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="18"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
+      <c r="A106" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -1954,45 +1961,45 @@
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="A113" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -2013,28 +2020,28 @@
         <v>6</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2055,10 +2062,10 @@
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D122" s="1"/>
     </row>
@@ -2067,11 +2074,11 @@
         <v>6</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="157.5" x14ac:dyDescent="0.15">
@@ -2079,46 +2086,46 @@
         <v>7</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15"/>
+        <v>100</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="19"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
+      <c r="A127" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -2139,28 +2146,28 @@
         <v>6</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="A136" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
@@ -2181,9 +2188,11 @@
         <v>5</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C138" s="2"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2191,9 +2200,11 @@
         <v>6</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2201,9 +2212,11 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C140" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2211,9 +2224,11 @@
         <v>41</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C141" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2221,48 +2236,226 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C142" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="18"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
       <c r="D143" s="10"/>
     </row>
-    <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B144" s="14"/>
-      <c r="C144" s="18"/>
-    </row>
-    <row r="145" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B145" s="14"/>
-      <c r="C145" s="18"/>
-    </row>
-    <row r="146" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B146" s="14"/>
-      <c r="C146" s="18"/>
-    </row>
-    <row r="147" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B147" s="14"/>
-      <c r="C147" s="18"/>
-    </row>
-    <row r="148" spans="2:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+    </row>
+    <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
+    <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+    </row>
+    <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A157" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="11"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B160" s="13"/>
+      <c r="C160" s="14"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+    </row>
+    <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+    </row>
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A168" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
+  <mergeCells count="51">
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="A43:D43"/>
@@ -2278,30 +2471,15 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A74:D74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="139">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,15 +540,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责注册界面代码块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2017.10.30 十 周一  下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>负责我的界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 十 周二  上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟崇尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责注册为设计师界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写注册为设计师界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习SSN框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,13 +709,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1031,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1671,7 +1695,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1685,7 +1709,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="17"/>
+      <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -2077,7 +2101,7 @@
         <v>98</v>
       </c>
       <c r="C123" s="13"/>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="17" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2089,7 +2113,7 @@
         <v>99</v>
       </c>
       <c r="C124" s="13"/>
-      <c r="D124" s="19"/>
+      <c r="D124" s="17"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2099,7 +2123,7 @@
         <v>97</v>
       </c>
       <c r="C125" s="13"/>
-      <c r="D125" s="19"/>
+      <c r="D125" s="17"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2109,7 +2133,7 @@
         <v>100</v>
       </c>
       <c r="C126" s="13"/>
-      <c r="D126" s="19"/>
+      <c r="D126" s="17"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
@@ -2379,7 +2403,7 @@
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -2404,9 +2428,11 @@
         <v>6</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C166" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2414,9 +2440,11 @@
         <v>7</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C167" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2427,13 +2455,90 @@
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
     </row>
+    <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A175" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A168:D168"/>
+  <mergeCells count="53">
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="C122:C126"/>
@@ -2448,38 +2553,13 @@
     <mergeCell ref="C88:C92"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A168:D168"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="146">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,6 +573,34 @@
   </si>
   <si>
     <t>继续学习SSN框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 十 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写后台实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写注册为设计师界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责我的界面模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写后台实体类和登录模块代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +688,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,7 +722,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -703,19 +737,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1055,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1070,18 +1101,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1120,12 +1151,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1134,12 +1165,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1180,12 +1211,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1200,12 +1231,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1234,12 +1265,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1248,12 +1279,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1318,12 +1349,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1332,12 +1363,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1357,10 +1388,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1369,41 +1400,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1434,20 +1465,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1476,20 +1507,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1566,20 +1597,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1656,20 +1687,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1695,7 +1726,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="18" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1709,7 +1740,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="19"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1724,12 +1755,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1738,12 +1769,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1798,20 +1829,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1834,7 +1865,7 @@
       <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1846,7 +1877,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1856,7 +1887,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1866,7 +1897,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1876,24 +1907,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="13"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -1913,10 +1944,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="16" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -1925,49 +1956,49 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -2010,20 +2041,20 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -2052,20 +2083,20 @@
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2088,7 +2119,7 @@
       <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D122" s="1"/>
@@ -2100,8 +2131,8 @@
       <c r="B123" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="17" t="s">
+      <c r="C123" s="15"/>
+      <c r="D123" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2112,8 +2143,8 @@
       <c r="B124" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="17"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="20"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2122,8 +2153,8 @@
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="17"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="20"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2132,24 +2163,24 @@
       <c r="B126" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="17"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="20"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -2178,20 +2209,20 @@
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
@@ -2271,37 +2302,37 @@
       <c r="A143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="14"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="16"/>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B144" s="13"/>
-      <c r="C144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="16"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="13"/>
-      <c r="C145" s="14"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="16"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="13"/>
-      <c r="C146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="16"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B147" s="13"/>
-      <c r="C147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="16"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
     <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
@@ -2381,33 +2412,33 @@
       <c r="A157" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="14"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="16"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B158" s="13"/>
-      <c r="C158" s="14"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="16"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="13"/>
-      <c r="C159" s="14"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="16"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="13"/>
-      <c r="C160" s="14"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="16"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B161" s="13"/>
-      <c r="C161" s="14"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="16"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -2448,20 +2479,20 @@
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="15"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
@@ -2484,7 +2515,9 @@
       <c r="B173" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2494,51 +2527,120 @@
       <c r="B174" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C174" s="1"/>
+      <c r="C174" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="15"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+    </row>
+    <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A185" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="15"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="12"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B186" s="15"/>
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B187" s="15"/>
+      <c r="C187" s="16"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B188" s="15"/>
+      <c r="C188" s="16"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B189" s="15"/>
+      <c r="C189" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="56">
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="C185:C189"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="C122:C126"/>
@@ -2555,6 +2657,38 @@
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
     <mergeCell ref="A150:D150"/>
     <mergeCell ref="B157:B161"/>
     <mergeCell ref="C157:C161"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="155">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,42 @@
   </si>
   <si>
     <t>继续写后台实体类和登录模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写后台实体类和登录模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.2 十 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写后台实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写我的界面模块代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +724,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -725,10 +761,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -740,13 +782,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1086,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1101,18 +1146,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1151,12 +1196,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1165,12 +1210,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1211,12 +1256,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1231,12 +1276,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1265,12 +1310,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1279,12 +1324,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1349,12 +1394,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1363,12 +1408,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1388,10 +1433,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1400,41 +1445,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1465,20 +1510,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1507,20 +1552,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1597,20 +1642,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1687,20 +1732,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1726,7 +1771,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1740,7 +1785,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="18"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1755,12 +1800,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1769,12 +1814,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1829,20 +1874,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1865,7 +1910,7 @@
       <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1877,7 +1922,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="15"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1887,7 +1932,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="17"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1897,7 +1942,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="15"/>
+      <c r="C91" s="17"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1907,24 +1952,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="15"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -1944,10 +1989,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -1956,49 +2001,49 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="16"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="16"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="16"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -2041,20 +2086,20 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -2083,20 +2128,20 @@
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2119,7 +2164,7 @@
       <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D122" s="1"/>
@@ -2131,7 +2176,7 @@
       <c r="B123" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="15"/>
+      <c r="C123" s="17"/>
       <c r="D123" s="20" t="s">
         <v>101</v>
       </c>
@@ -2143,7 +2188,7 @@
       <c r="B124" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="15"/>
+      <c r="C124" s="17"/>
       <c r="D124" s="20"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2153,7 +2198,7 @@
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="15"/>
+      <c r="C125" s="17"/>
       <c r="D125" s="20"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
@@ -2163,24 +2208,24 @@
       <c r="B126" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C126" s="15"/>
+      <c r="C126" s="17"/>
       <c r="D126" s="20"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -2209,20 +2254,20 @@
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
@@ -2302,37 +2347,37 @@
       <c r="A143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="15"/>
-      <c r="C143" s="16"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B144" s="15"/>
-      <c r="C144" s="16"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="15"/>
-      <c r="C145" s="16"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="18"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="15"/>
-      <c r="C146" s="16"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B147" s="15"/>
-      <c r="C147" s="16"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="18"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
     <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
@@ -2412,33 +2457,33 @@
       <c r="A157" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="15"/>
-      <c r="C157" s="16"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B158" s="15"/>
-      <c r="C158" s="16"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="15"/>
-      <c r="C159" s="16"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="15"/>
-      <c r="C160" s="16"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="18"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B161" s="15"/>
-      <c r="C161" s="16"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -2479,20 +2524,20 @@
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
@@ -2533,20 +2578,20 @@
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
     </row>
     <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
@@ -2569,7 +2614,9 @@
       <c r="B180" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2579,7 +2626,9 @@
       <c r="B181" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2589,7 +2638,9 @@
       <c r="B182" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2597,9 +2648,11 @@
         <v>41</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C183" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2609,51 +2662,126 @@
       <c r="B184" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A185" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="15"/>
-      <c r="C185" s="16"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
       <c r="D185" s="12"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B186" s="15"/>
-      <c r="C186" s="16"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B187" s="15"/>
-      <c r="C187" s="16"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B188" s="15"/>
+    <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B188" s="16"/>
       <c r="C188" s="16"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B189" s="15"/>
-      <c r="C189" s="16"/>
+      <c r="D188" s="16"/>
+    </row>
+    <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A195" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="13"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A69:D69"/>
+  <mergeCells count="55">
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A130:D130"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="C98:C102"/>
     <mergeCell ref="A96:D96"/>
@@ -2670,30 +2798,20 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="161">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,30 @@
   </si>
   <si>
     <t>继续写我的界面模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6-7 十一 周一  下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责注册为普通用户界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成90%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,6 +797,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -782,16 +809,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1131,9 +1155,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
       <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
@@ -1196,12 +1220,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1256,12 +1280,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1310,12 +1334,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1394,12 +1418,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1433,10 +1457,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1445,33 +1469,33 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -1510,12 +1534,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -1552,12 +1576,12 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
@@ -1642,12 +1666,12 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
@@ -1732,12 +1756,12 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
@@ -1771,7 +1795,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1785,7 +1809,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="23"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1800,12 +1824,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1874,12 +1898,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
@@ -1910,7 +1934,7 @@
       <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1922,7 +1946,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="17"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1932,7 +1956,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="17"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1942,7 +1966,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="17"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1952,16 +1976,16 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="17"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
@@ -1989,10 +2013,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -2001,41 +2025,41 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
@@ -2086,12 +2110,12 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
@@ -2128,12 +2152,12 @@
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
@@ -2164,7 +2188,7 @@
       <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D122" s="1"/>
@@ -2176,8 +2200,8 @@
       <c r="B123" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="20" t="s">
+      <c r="C123" s="18"/>
+      <c r="D123" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2188,8 +2212,8 @@
       <c r="B124" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="20"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="23"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2198,8 +2222,8 @@
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="20"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="23"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2208,16 +2232,16 @@
       <c r="B126" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="20"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
@@ -2254,12 +2278,12 @@
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
@@ -2347,25 +2371,25 @@
       <c r="A143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="18"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="19"/>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B144" s="17"/>
-      <c r="C144" s="18"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="17"/>
-      <c r="C145" s="18"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="19"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="17"/>
-      <c r="C146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="19"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B147" s="17"/>
-      <c r="C147" s="18"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="19"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
@@ -2457,25 +2481,25 @@
       <c r="A157" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="17"/>
-      <c r="C157" s="18"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B158" s="17"/>
-      <c r="C158" s="18"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="19"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="17"/>
-      <c r="C159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="19"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="17"/>
-      <c r="C160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="19"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B161" s="17"/>
-      <c r="C161" s="18"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="19"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -2524,12 +2548,12 @@
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
@@ -2578,12 +2602,12 @@
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="21"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
@@ -2704,7 +2728,9 @@
       <c r="B190" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2714,7 +2740,9 @@
       <c r="B191" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2724,7 +2752,9 @@
       <c r="B192" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2734,7 +2764,9 @@
       <c r="B193" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C193" s="2"/>
+      <c r="C193" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2744,7 +2776,9 @@
       <c r="B194" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2755,19 +2789,77 @@
       <c r="C195" s="14"/>
       <c r="D195" s="15"/>
     </row>
+    <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A201" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A168:D168"/>
+  <mergeCells count="57">
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A86:D86"/>
@@ -2784,34 +2876,18 @@
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="C98:C102"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A168:D168"/>
     <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,6 +661,30 @@
   </si>
   <si>
     <t>完成90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.13-14 十二 周一  下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责作品详细信息界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏仲凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责我的收藏界面代码块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,19 +827,19 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1155,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1170,10 +1194,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1418,12 +1442,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1490,12 +1514,12 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -1666,12 +1690,12 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
@@ -1756,12 +1780,12 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
@@ -1795,7 +1819,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1809,7 +1833,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="21"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1980,12 +2004,12 @@
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
@@ -2016,7 +2040,7 @@
       <c r="B98" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -2026,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="23"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2034,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,7 +2066,7 @@
         <v>41</v>
       </c>
       <c r="B101" s="18"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="23"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,16 +2074,16 @@
         <v>8</v>
       </c>
       <c r="B102" s="18"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
@@ -2201,7 +2225,7 @@
         <v>98</v>
       </c>
       <c r="C123" s="18"/>
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2213,7 +2237,7 @@
         <v>99</v>
       </c>
       <c r="C124" s="18"/>
-      <c r="D124" s="23"/>
+      <c r="D124" s="20"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2223,7 +2247,7 @@
         <v>97</v>
       </c>
       <c r="C125" s="18"/>
-      <c r="D125" s="23"/>
+      <c r="D125" s="20"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2233,15 +2257,15 @@
         <v>100</v>
       </c>
       <c r="C126" s="18"/>
-      <c r="D126" s="23"/>
+      <c r="D126" s="20"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
@@ -2372,24 +2396,24 @@
         <v>4</v>
       </c>
       <c r="B143" s="18"/>
-      <c r="C143" s="19"/>
+      <c r="C143" s="23"/>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B144" s="18"/>
-      <c r="C144" s="19"/>
+      <c r="C144" s="23"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B145" s="18"/>
-      <c r="C145" s="19"/>
+      <c r="C145" s="23"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B146" s="18"/>
-      <c r="C146" s="19"/>
+      <c r="C146" s="23"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B147" s="18"/>
-      <c r="C147" s="19"/>
+      <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
@@ -2482,24 +2506,24 @@
         <v>4</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="C157" s="19"/>
+      <c r="C157" s="23"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B158" s="18"/>
-      <c r="C158" s="19"/>
+      <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B159" s="18"/>
-      <c r="C159" s="19"/>
+      <c r="C159" s="23"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B160" s="18"/>
-      <c r="C160" s="19"/>
+      <c r="C160" s="23"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B161" s="18"/>
-      <c r="C161" s="19"/>
+      <c r="C161" s="23"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -2818,7 +2842,9 @@
       <c r="B200" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C200" s="2"/>
+      <c r="C200" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2829,36 +2855,62 @@
       <c r="C201" s="17"/>
       <c r="D201" s="17"/>
     </row>
+    <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+    </row>
+    <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A208" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
+  <mergeCells count="59">
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A208:D208"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A56:D56"/>
@@ -2875,7 +2927,35 @@
     <mergeCell ref="A116:D116"/>
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="C98:C102"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="D123:D126"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="A175:D175"/>
@@ -2886,8 +2966,6 @@
     <mergeCell ref="B157:B161"/>
     <mergeCell ref="C157:C161"/>
     <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A178:D178"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="174">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,10 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.11.13-14 十二 周一  下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责作品详细信息界面代码块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,6 +681,38 @@
   </si>
   <si>
     <t>负责我的收藏界面代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.11.15 十二 周三 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.11.13-14 十二 周一  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责后台注册模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责后台搜索功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责前端设计师详细信息模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责前端我的关注模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责前端品牌服装详细模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +800,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -818,28 +846,37 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -849,6 +886,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -865,7 +970,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1179,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1194,18 +1299,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1244,12 +1349,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1258,12 +1363,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1304,12 +1409,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1324,12 +1429,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1358,12 +1463,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1372,12 +1477,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1442,12 +1547,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1456,12 +1561,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1481,10 +1586,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1493,41 +1598,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1558,20 +1663,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1600,20 +1705,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1690,20 +1795,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1780,20 +1885,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1848,12 +1953,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1862,12 +1967,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1922,20 +2027,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1958,7 +2063,7 @@
       <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -1970,7 +2075,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="18"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1980,7 +2085,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="18"/>
+      <c r="C90" s="24"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1990,7 +2095,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="18"/>
+      <c r="C91" s="24"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2000,24 +2105,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="18"/>
+      <c r="C92" s="24"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -2037,10 +2142,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="25" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -2049,49 +2154,49 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="23"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="23"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -2134,20 +2239,20 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -2176,20 +2281,20 @@
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2212,7 +2317,7 @@
       <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D122" s="1"/>
@@ -2224,8 +2329,8 @@
       <c r="B123" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="20" t="s">
+      <c r="C123" s="24"/>
+      <c r="D123" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2236,8 +2341,8 @@
       <c r="B124" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="20"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="26"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2246,8 +2351,8 @@
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="20"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="26"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2256,24 +2361,24 @@
       <c r="B126" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="20"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -2302,20 +2407,20 @@
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
@@ -2395,37 +2500,37 @@
       <c r="A143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="23"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="25"/>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B144" s="18"/>
-      <c r="C144" s="23"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="25"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="18"/>
-      <c r="C145" s="23"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="25"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="18"/>
-      <c r="C146" s="23"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="25"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B147" s="18"/>
-      <c r="C147" s="23"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="25"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
     <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
@@ -2505,33 +2610,33 @@
       <c r="A157" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="18"/>
-      <c r="C157" s="23"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="25"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B158" s="18"/>
-      <c r="C158" s="23"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="25"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="18"/>
-      <c r="C159" s="23"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="25"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="18"/>
-      <c r="C160" s="23"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="25"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B161" s="18"/>
-      <c r="C161" s="23"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="25"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -2572,20 +2677,20 @@
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="16" t="s">
+      <c r="A171" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
@@ -2626,20 +2731,20 @@
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="16" t="s">
+      <c r="A178" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B178" s="16"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
     </row>
     <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
@@ -2724,12 +2829,12 @@
       <c r="D185" s="12"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="16" t="s">
+      <c r="A188" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
@@ -2814,12 +2919,12 @@
       <c r="D195" s="15"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="16" t="s">
+      <c r="A198" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B198" s="16"/>
-      <c r="C198" s="16"/>
-      <c r="D198" s="16"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
@@ -2848,20 +2953,20 @@
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
     </row>
     <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B204" s="16"/>
-      <c r="C204" s="16"/>
-      <c r="D204" s="16"/>
+      <c r="A204" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
@@ -2879,12 +2984,14 @@
     </row>
     <row r="206" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2892,21 +2999,147 @@
         <v>6</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C207" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+    </row>
+    <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+    </row>
+    <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A218" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="16"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
     <mergeCell ref="A168:D168"/>
     <mergeCell ref="A178:D178"/>
     <mergeCell ref="A204:D204"/>
@@ -2923,49 +3156,6 @@
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A106:D106"/>
     <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="A164:D164"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="186">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,15 +692,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>负责后台注册模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责后台搜索功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">日期：2017.11.13-14 十二 周一  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责后台注册模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责后台搜索功能模块</t>
+    <t>日期：2017.11.6-7 十三 周一  下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓宇</t>
+  </si>
+  <si>
+    <t>魏仲凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏仲凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责前端品牌服装详细模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -712,7 +751,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责前端品牌服装详细模块</t>
+    <t>继续负责前端品牌服装详细模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续负责前端我的关注模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续负责前端设计师详细信息模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,28 +902,28 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -886,74 +933,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -970,7 +949,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1284,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1299,18 +1278,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1349,12 +1328,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1363,12 +1342,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1409,12 +1388,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1429,12 +1408,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1463,12 +1442,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1477,12 +1456,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1547,12 +1526,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1561,12 +1540,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1586,10 +1565,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1598,41 +1577,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1663,20 +1642,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1705,20 +1684,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1795,20 +1774,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1885,20 +1864,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1924,7 +1903,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1938,7 +1917,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="22"/>
+      <c r="D72" s="26"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1953,12 +1932,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1967,12 +1946,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2027,20 +2006,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -2063,7 +2042,7 @@
       <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -2075,7 +2054,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="24"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2085,7 +2064,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="24"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2095,7 +2074,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="24"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2105,24 +2084,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="24"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -2142,10 +2121,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -2154,49 +2133,49 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="24"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="25"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="24"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="25"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="24"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -2239,20 +2218,20 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -2281,20 +2260,20 @@
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2317,7 +2296,7 @@
       <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D122" s="1"/>
@@ -2329,8 +2308,8 @@
       <c r="B123" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="26" t="s">
+      <c r="C123" s="21"/>
+      <c r="D123" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2341,8 +2320,8 @@
       <c r="B124" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="26"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="23"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2351,8 +2330,8 @@
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="24"/>
-      <c r="D125" s="26"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="23"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2361,24 +2340,24 @@
       <c r="B126" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="26"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+      <c r="A130" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -2407,20 +2386,20 @@
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
@@ -2500,37 +2479,37 @@
       <c r="A143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="25"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="24"/>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B144" s="24"/>
-      <c r="C144" s="25"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="24"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="24"/>
-      <c r="C145" s="25"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="24"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="24"/>
-      <c r="C146" s="25"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="24"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B147" s="24"/>
-      <c r="C147" s="25"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="24"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
     <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="20" t="s">
+      <c r="A150" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
@@ -2610,33 +2589,33 @@
       <c r="A157" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="24"/>
-      <c r="C157" s="25"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="24"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B158" s="24"/>
-      <c r="C158" s="25"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="24"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="24"/>
-      <c r="C159" s="25"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="24"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="24"/>
-      <c r="C160" s="25"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="24"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B161" s="24"/>
-      <c r="C161" s="25"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="24"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -2677,20 +2656,20 @@
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="19" t="s">
+      <c r="A168" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
@@ -2731,20 +2710,20 @@
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="19" t="s">
+      <c r="A175" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="20" t="s">
+      <c r="A178" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
     </row>
     <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
@@ -2829,12 +2808,12 @@
       <c r="D185" s="12"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="20" t="s">
+      <c r="A188" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B188" s="20"/>
-      <c r="C188" s="20"/>
-      <c r="D188" s="20"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
@@ -2919,12 +2898,12 @@
       <c r="D195" s="15"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="20"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
@@ -2953,20 +2932,20 @@
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A201" s="19" t="s">
+      <c r="A201" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
     </row>
     <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="20"/>
+      <c r="A204" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
@@ -3007,20 +2986,20 @@
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="19" t="s">
+      <c r="A208" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="20" t="s">
+      <c r="A211" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="20"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
@@ -3041,9 +3020,11 @@
         <v>5</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C213" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="D213" s="1"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3051,19 +3032,23 @@
         <v>6</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C214" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C215" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3071,9 +3056,11 @@
         <v>41</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C216" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3081,9 +3068,11 @@
         <v>8</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C217" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3094,8 +3083,114 @@
       <c r="C218" s="18"/>
       <c r="D218" s="17"/>
     </row>
+    <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+    </row>
+    <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A221" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A222" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A223" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A225" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="62">
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A74:D74"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A198:D198"/>
     <mergeCell ref="A201:D201"/>
@@ -3112,50 +3207,6 @@
     <mergeCell ref="A150:D150"/>
     <mergeCell ref="B157:B161"/>
     <mergeCell ref="C157:C161"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第七组/小组计划实施表第七组 (1).xlsx
+++ b/第七组/小组计划实施表第七组 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="194">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,6 +760,38 @@
   </si>
   <si>
     <t>继续负责前端设计师详细信息模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期：2017.11.22 十三 周三 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责我的收藏模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责前端作品设计师筛选模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责前端我的收藏模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责后台收藏模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责前端布料辅料模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +879,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -902,28 +934,37 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1263,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1278,18 +1319,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1328,12 +1369,12 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1342,12 +1383,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1388,12 +1429,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1408,12 +1449,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1442,12 +1483,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
@@ -1456,12 +1497,12 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1526,12 +1567,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1540,12 +1581,12 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1565,10 +1606,10 @@
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1"/>
@@ -1577,41 +1618,41 @@
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1642,20 +1683,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -1684,20 +1725,20 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -1774,20 +1815,20 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -1864,20 +1905,20 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1903,7 +1944,7 @@
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1917,7 +1958,7 @@
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="26"/>
+      <c r="D72" s="25"/>
     </row>
     <row r="73" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -1932,12 +1973,12 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
@@ -1946,12 +1987,12 @@
       <c r="D75" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2006,20 +2047,20 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -2042,7 +2083,7 @@
       <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="1"/>
@@ -2054,7 +2095,7 @@
       <c r="B89" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="21"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2064,7 +2105,7 @@
       <c r="B90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="21"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2074,7 +2115,7 @@
       <c r="B91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="21"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2084,24 +2125,24 @@
       <c r="B92" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="21"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
     </row>
     <row r="96" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -2121,10 +2162,10 @@
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="1"/>
@@ -2133,49 +2174,49 @@
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="24"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="24"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="24"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="24"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
     </row>
     <row r="106" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -2218,20 +2259,20 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -2260,20 +2301,20 @@
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2296,7 +2337,7 @@
       <c r="B122" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D122" s="1"/>
@@ -2308,8 +2349,8 @@
       <c r="B123" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="23" t="s">
+      <c r="C123" s="26"/>
+      <c r="D123" s="29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2320,8 +2361,8 @@
       <c r="B124" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="21"/>
-      <c r="D124" s="23"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="29"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2330,8 +2371,8 @@
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="23"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="29"/>
     </row>
     <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -2340,24 +2381,24 @@
       <c r="B126" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C126" s="21"/>
-      <c r="D126" s="23"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="29"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -2386,20 +2427,20 @@
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
@@ -2479,37 +2520,37 @@
       <c r="A143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="21"/>
-      <c r="C143" s="24"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="28"/>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B144" s="21"/>
-      <c r="C144" s="24"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="28"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B145" s="21"/>
-      <c r="C145" s="24"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="28"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" s="21"/>
-      <c r="C146" s="24"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="28"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B147" s="21"/>
-      <c r="C147" s="24"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="28"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
     <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
@@ -2589,33 +2630,33 @@
       <c r="A157" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="24"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="28"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B158" s="21"/>
-      <c r="C158" s="24"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="28"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="21"/>
-      <c r="C159" s="24"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="28"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="21"/>
-      <c r="C160" s="24"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="28"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B161" s="21"/>
-      <c r="C161" s="24"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="28"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -2656,20 +2697,20 @@
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="20" t="s">
+      <c r="A168" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="20"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
@@ -2710,20 +2751,20 @@
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="20" t="s">
+      <c r="A175" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="20"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="19" t="s">
+      <c r="A178" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
     </row>
     <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
@@ -2808,12 +2849,12 @@
       <c r="D185" s="12"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="19" t="s">
+      <c r="A188" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
     </row>
     <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
@@ -2898,12 +2939,12 @@
       <c r="D195" s="15"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="19" t="s">
+      <c r="A198" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
@@ -2932,20 +2973,20 @@
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
     </row>
     <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="19" t="s">
+      <c r="A204" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
@@ -2986,20 +3027,20 @@
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="20" t="s">
+      <c r="A208" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="20"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="19" t="s">
+      <c r="A211" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
@@ -3084,12 +3125,12 @@
       <c r="D218" s="17"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="19" t="s">
+      <c r="A220" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
     </row>
     <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
@@ -3112,7 +3153,9 @@
       <c r="B222" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C222" s="2"/>
+      <c r="C222" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3122,7 +3165,9 @@
       <c r="B223" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C223" s="2"/>
+      <c r="C223" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3132,24 +3177,143 @@
       <c r="B224" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C224" s="2"/>
+      <c r="C224" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="20" t="s">
+      <c r="A225" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
-      <c r="D225" s="20"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="23"/>
+    </row>
+    <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+    </row>
+    <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A235" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="19"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A208:D208"/>
+  <mergeCells count="63">
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A103:D103"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A56:D56"/>
@@ -3166,47 +3330,11 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A208:D208"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
